--- a/Base/Teams/Eagles/2021 Target Depth Data.xlsx
+++ b/Base/Teams/Eagles/2021 Target Depth Data.xlsx
@@ -450,16 +450,16 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>163</v>
+        <v>183</v>
       </c>
       <c r="C3">
-        <v>111</v>
+        <v>127</v>
       </c>
       <c r="D3">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="E3">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F3">
         <v>3</v>
@@ -529,22 +529,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>207</v>
+        <v>238</v>
       </c>
       <c r="C3">
-        <v>161</v>
+        <v>183</v>
       </c>
       <c r="D3">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="E3">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F3">
         <v>2</v>
       </c>
       <c r="G3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/Base/Teams/Eagles/2021 Target Depth Data.xlsx
+++ b/Base/Teams/Eagles/2021 Target Depth Data.xlsx
@@ -427,19 +427,19 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>104</v>
+        <v>124</v>
       </c>
       <c r="C2">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="D2">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="E2">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -506,16 +506,16 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>148</v>
+        <v>175</v>
       </c>
       <c r="C2">
-        <v>106</v>
+        <v>124</v>
       </c>
       <c r="D2">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E2">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F2">
         <v>3</v>

--- a/Base/Teams/Eagles/2021 Target Depth Data.xlsx
+++ b/Base/Teams/Eagles/2021 Target Depth Data.xlsx
@@ -427,16 +427,16 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>124</v>
+        <v>146</v>
       </c>
       <c r="C2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="D2">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="E2">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -506,22 +506,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>175</v>
+        <v>215</v>
       </c>
       <c r="C2">
-        <v>124</v>
+        <v>147</v>
       </c>
       <c r="D2">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E2">
         <v>13</v>
       </c>
       <c r="F2">
+        <v>4</v>
+      </c>
+      <c r="G2">
         <v>3</v>
-      </c>
-      <c r="G2">
-        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:7">

--- a/Base/Teams/Eagles/2021 Target Depth Data.xlsx
+++ b/Base/Teams/Eagles/2021 Target Depth Data.xlsx
@@ -450,16 +450,16 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>183</v>
+        <v>204</v>
       </c>
       <c r="C3">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="D3">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="E3">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F3">
         <v>3</v>
@@ -529,22 +529,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>238</v>
+        <v>267</v>
       </c>
       <c r="C3">
-        <v>183</v>
+        <v>208</v>
       </c>
       <c r="D3">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="E3">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F3">
         <v>2</v>
       </c>
       <c r="G3">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Base/Teams/Eagles/2021 Target Depth Data.xlsx
+++ b/Base/Teams/Eagles/2021 Target Depth Data.xlsx
@@ -450,22 +450,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>204</v>
+        <v>232</v>
       </c>
       <c r="C3">
-        <v>142</v>
+        <v>160</v>
       </c>
       <c r="D3">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="E3">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G3">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -529,16 +529,16 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>267</v>
+        <v>301</v>
       </c>
       <c r="C3">
-        <v>208</v>
+        <v>235</v>
       </c>
       <c r="D3">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="E3">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F3">
         <v>2</v>
